--- a/time_tables/full_time_undergraduate/zovs_2_kurs.xlsx
+++ b/time_tables/full_time_undergraduate/zovs_2_kurs.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="153">
   <si>
     <t>Институт АФК</t>
   </si>
@@ -778,37 +778,6 @@
 (к.б.н., доцент Селиверстова В.В.)</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Только 13.01. - Мойка 108 ауд.9
-Лекция
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="36"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Академическая разница</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">
-БЖД
-(доцент Живодеров В.А.)
-</t>
-    </r>
-  </si>
-  <si>
     <t>ауд.19
 Лекция
 ЭКОНОМИКА ФКиС
@@ -840,13 +809,6 @@
 Лекция
 ФИЗИОЛОГИЯ ЧЕЛОВЕКА
 (к.б.н., доцент Озеров Г.Л.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ауд.423  
-Лекция
-ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ
-(к.п.н., доцент Григорьева Д.В.)</t>
   </si>
   <si>
     <t xml:space="preserve">14.01.
@@ -862,12 +824,6 @@
   <si>
     <t>Бассейн в 11:20
 ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ</t>
-  </si>
-  <si>
-    <t>ауд.119 
-Лекция
-БИОМЕХАНИКА ДВИГАТЕЛЬНОЙ ДЕЯТЕЛЬНОСТИ
-(к.б.н., доцент Кичайкина Н.Б.)</t>
   </si>
   <si>
     <t>ауд.8 ИМиСТ
@@ -994,10 +950,6 @@
 (Константинова А.К., Пудло П.М.)</t>
   </si>
   <si>
-    <t>ТиМИВС
-(Казакова О.Б.)</t>
-  </si>
-  <si>
     <t>УТЦ "Кавголово" -  для биатлона
 Кафедра - спорт.скалолазание, 
 керлинг 
@@ -1056,12 +1008,6 @@
 ТиМИВС</t>
   </si>
   <si>
-    <t>ауд.426
-Лекция
-ПЕДАГОГИКА ФКиС
-(к.п.н., профессор Кожевникова Н.В.)</t>
-  </si>
-  <si>
     <t>Кафедра
 Элективные дисциплины по ФКиС</t>
   </si>
@@ -1792,12 +1738,6 @@
 30.01.</t>
   </si>
   <si>
-    <t>ауд.423
-Лекция
-ПЕДАГОГИКА ФКиС
-(к.п.н., профессор Кожевникова Н.В.)</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 31.01.</t>
   </si>
@@ -1819,12 +1759,206 @@
 (к.п.н., доцент Мосунова М.Д.)
 </t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ауд.10 ИМиСТ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="26"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Лекция
+ТЕОРИЯ и МЕТОДИКА ОБУЧЕНИЯ БАЗОВЫМ ВИДАМ: ПЛАВАНИЕ
+(к.п.н., доцент Григорьева Д.В.)</t>
+    </r>
+  </si>
+  <si>
+    <t>Кафедра
+ТиМИВС
+(Казакова О.Б.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ауд.8 ИМиСТ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Лекция
+БИОМЕХАНИКА ДВИГАТЕЛЬНОЙ ДЕЯТЕЛЬНОСТИ
+(к.б.н., доцент Кичайкина Н.Б.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ауд.8 ИМиСТ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Лекция
+БИОМЕХАНИКА ДВИГАТЕЛЬНОЙ ДЕЯТЕЛЬНОСТИ
+(к.б.н., доцент Кичайкина Н.Б.)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Мойка 108 ауд.9
+Лекция
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="36"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Академическая разница</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+БЖД
+(доцент Живодеров В.А.)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ауд.119 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Лекция
+ПЕДАГОГИКА ФКиС
+(к.п.н., профессор Кожевникова Н.В.)
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ауд.409
+Лекция
+ПЕДАГОГИКА ФКиС
+(к.п.н., доцент Гомзякова И.П.)
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ауд.119</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+Лекция
+ПЕДАГОГИКА ФКиС
+(к.п.н., профессор Кожевникова Н.В.)</t>
+    </r>
+  </si>
+  <si>
+    <t>ауд.423
+Лекция
+ПЕДАГОГИКА ФКиС
+(к.п.н., профессор Кожевникова Н.В.)</t>
+  </si>
+  <si>
+    <t>ауд.426
+Лекция
+ПЕДАГОГИКА ФКиС
+(к.п.н., профессор Кожевникова Н.В.)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2203,6 +2337,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3089,6 +3231,18 @@
     <xf numFmtId="49" fontId="34" fillId="2" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3098,7 +3252,52 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3117,26 +3316,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3158,70 +3345,31 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3231,12 +3379,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="39" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="44" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3562,7 +3704,7 @@
   <dimension ref="A1:AX52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="26" zoomScaleNormal="60" zoomScaleSheetLayoutView="26" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:N10"/>
+      <selection activeCell="D23" sqref="D23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -3586,100 +3728,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="66" customFormat="1" ht="158.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
     </row>
     <row r="2" spans="1:31" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="141"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="156"/>
     </row>
     <row r="3" spans="1:31" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="93"/>
       <c r="B3" s="94"/>
       <c r="C3" s="95"/>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="144"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
       <c r="I3" s="96"/>
-      <c r="J3" s="145" t="s">
+      <c r="J3" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="135"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="162"/>
       <c r="O3" s="97"/>
-      <c r="P3" s="146" t="s">
+      <c r="P3" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="147"/>
+      <c r="Q3" s="164"/>
     </row>
     <row r="4" spans="1:31" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="138"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="167"/>
       <c r="O4" s="37"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="135"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="162"/>
     </row>
     <row r="5" spans="1:31" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="150" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3722,9 +3864,9 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="305.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="128"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="132"/>
+      <c r="A6" s="147"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="151"/>
       <c r="D6" s="43" t="s">
         <v>19</v>
       </c>
@@ -3787,7 +3929,7 @@
       <c r="A8" s="120" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="152" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="76" t="s">
@@ -3805,10 +3947,10 @@
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
       <c r="O8" s="23"/>
-      <c r="P8" s="148" t="s">
+      <c r="P8" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="148"/>
+      <c r="Q8" s="126"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
@@ -3826,23 +3968,25 @@
     </row>
     <row r="9" spans="1:31" s="7" customFormat="1" ht="196.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="121"/>
-      <c r="B9" s="126"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="H9" s="114"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
       <c r="I9" s="36"/>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="N9" s="19"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="148" t="s">
+      <c r="P9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="148"/>
+      <c r="Q9" s="126"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -3860,23 +4004,23 @@
     </row>
     <row r="10" spans="1:31" s="7" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="121"/>
-      <c r="B10" s="126"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="24"/>
-      <c r="J10" s="149" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="150"/>
-      <c r="L10" s="150"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="151"/>
+      <c r="J10" s="130" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="132"/>
       <c r="O10" s="33"/>
       <c r="P10" s="42"/>
       <c r="Q10" s="42"/>
@@ -3893,25 +4037,25 @@
     </row>
     <row r="11" spans="1:31" s="7" customFormat="1" ht="270" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="121"/>
-      <c r="B11" s="126"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="149" t="s">
+      <c r="D11" s="130" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
       <c r="O11" s="34"/>
       <c r="P11" s="42"/>
       <c r="Q11" s="19"/>
@@ -3928,25 +4072,25 @@
     </row>
     <row r="12" spans="1:31" s="7" customFormat="1" ht="294.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="122"/>
-      <c r="B12" s="126"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="154" t="s">
+      <c r="D12" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="154" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="139"/>
       <c r="O12" s="32"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -3961,25 +4105,25 @@
     </row>
     <row r="13" spans="1:31" s="7" customFormat="1" ht="231" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="122"/>
-      <c r="B13" s="123"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="152" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="156"/>
-      <c r="L13" s="156"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="157"/>
+      <c r="J13" s="140" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" s="141"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="141"/>
+      <c r="N13" s="142"/>
       <c r="O13" s="32"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -4020,10 +4164,10 @@
       <c r="AE14" s="17"/>
     </row>
     <row r="15" spans="1:31" s="7" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="164" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="123" t="s">
+      <c r="A15" s="137" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="127" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="76" t="s">
@@ -4058,23 +4202,23 @@
       <c r="AE15" s="17"/>
     </row>
     <row r="16" spans="1:31" s="15" customFormat="1" ht="236.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="164"/>
-      <c r="B16" s="124"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="165" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
+      <c r="D16" s="138" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
       <c r="I16" s="26"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="N16" s="108" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O16" s="30"/>
       <c r="P16" s="42"/>
@@ -4095,26 +4239,26 @@
       <c r="AE16" s="16"/>
     </row>
     <row r="17" spans="1:31" s="7" customFormat="1" ht="279.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="164"/>
-      <c r="B17" s="124"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="149" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="151"/>
+      <c r="D17" s="130" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="132"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="149" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="150"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="151"/>
+      <c r="J17" s="130" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="132"/>
       <c r="O17" s="24"/>
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
@@ -4127,26 +4271,26 @@
       <c r="AE17" s="17"/>
     </row>
     <row r="18" spans="1:31" s="7" customFormat="1" ht="299.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="164"/>
-      <c r="B18" s="124"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="149" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="151"/>
+      <c r="D18" s="130" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="132"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="158" t="s">
-        <v>63</v>
-      </c>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="160"/>
+      <c r="J18" s="143" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="145"/>
       <c r="O18" s="24"/>
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
@@ -4159,31 +4303,31 @@
       <c r="AE18" s="17"/>
     </row>
     <row r="19" spans="1:31" s="7" customFormat="1" ht="319.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="164"/>
-      <c r="B19" s="125"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="79" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="107" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="134" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="H19" s="107" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="161" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="162"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="163"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="136"/>
       <c r="O19" s="24"/>
       <c r="P19" s="87"/>
       <c r="R19" s="17"/>
@@ -4195,8 +4339,8 @@
       <c r="AE19" s="17"/>
     </row>
     <row r="20" spans="1:31" s="7" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="164"/>
-      <c r="B20" s="125"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="79" t="s">
         <v>45</v>
       </c>
@@ -4263,32 +4407,32 @@
     </row>
     <row r="22" spans="1:31" s="7" customFormat="1" ht="390" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="120" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="123" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="127" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="152" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
+      <c r="D22" s="133" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
       <c r="I22" s="24"/>
       <c r="J22" s="19"/>
       <c r="K22" s="92" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="92" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N22" s="92" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O22" s="25"/>
       <c r="P22" s="42"/>
@@ -4310,28 +4454,28 @@
     </row>
     <row r="23" spans="1:31" s="15" customFormat="1" ht="375.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="121"/>
-      <c r="B23" s="124"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="149" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="151"/>
+      <c r="D23" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="132"/>
       <c r="I23" s="36"/>
       <c r="J23" s="22"/>
       <c r="K23" s="88" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L23" s="22"/>
       <c r="M23" s="92" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N23" s="92" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O23" s="26"/>
       <c r="P23" s="42"/>
@@ -4353,30 +4497,30 @@
     </row>
     <row r="24" spans="1:31" s="7" customFormat="1" ht="308.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="121"/>
-      <c r="B24" s="124"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="149" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="151"/>
+      <c r="D24" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="132"/>
       <c r="I24" s="36"/>
       <c r="J24" s="108" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K24" s="92" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L24" s="92" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="M24" s="91"/>
       <c r="N24" s="92" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O24" s="24"/>
       <c r="P24" s="42"/>
@@ -4391,23 +4535,23 @@
     </row>
     <row r="25" spans="1:31" s="7" customFormat="1" ht="255" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="121"/>
-      <c r="B25" s="124"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="149" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="151"/>
+      <c r="D25" s="130" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="132"/>
       <c r="I25" s="24"/>
       <c r="J25" s="92" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L25" s="92" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M25" s="91"/>
       <c r="N25" s="19"/>
@@ -4424,7 +4568,7 @@
     </row>
     <row r="26" spans="1:31" s="7" customFormat="1" ht="301.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="122"/>
-      <c r="B26" s="125"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="79" t="s">
         <v>15</v>
       </c>
@@ -4434,14 +4578,14 @@
       <c r="G26" s="19"/>
       <c r="I26" s="24"/>
       <c r="J26" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M26" s="98" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N26" s="19"/>
       <c r="O26" s="32"/>
@@ -4497,23 +4641,23 @@
     </row>
     <row r="28" spans="1:31" s="7" customFormat="1" ht="273.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="120" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="127" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="76" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="92" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E28" s="92" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F28" s="91"/>
       <c r="G28" s="108" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H28" s="91"/>
       <c r="I28" s="36"/>
@@ -4540,36 +4684,36 @@
     </row>
     <row r="29" spans="1:31" s="7" customFormat="1" ht="306.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="121"/>
-      <c r="B29" s="124"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="78" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="92" t="s">
         <v>81</v>
-      </c>
-      <c r="E29" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="108" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="92" t="s">
-        <v>85</v>
       </c>
       <c r="H29" s="91"/>
       <c r="I29" s="24"/>
-      <c r="J29" s="149" t="s">
-        <v>86</v>
-      </c>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="151"/>
+      <c r="J29" s="130" t="s">
+        <v>152</v>
+      </c>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="132"/>
       <c r="O29" s="24"/>
-      <c r="P29" s="166" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q29" s="167"/>
+      <c r="P29" s="124" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q29" s="125"/>
       <c r="R29" s="17"/>
       <c r="S29" s="17"/>
       <c r="T29" s="17"/>
@@ -4587,36 +4731,36 @@
     </row>
     <row r="30" spans="1:31" s="7" customFormat="1" ht="324.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="121"/>
-      <c r="B30" s="124"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="91"/>
       <c r="E30" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F30" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G30" s="92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H30" s="92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I30" s="36"/>
-      <c r="J30" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
+      <c r="J30" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="133"/>
+      <c r="L30" s="133"/>
+      <c r="M30" s="133"/>
+      <c r="N30" s="133"/>
       <c r="O30" s="24"/>
-      <c r="P30" s="166" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q30" s="167"/>
+      <c r="P30" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q30" s="125"/>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
       <c r="T30" s="17"/>
@@ -4634,40 +4778,40 @@
     </row>
     <row r="31" spans="1:31" s="15" customFormat="1" ht="332.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="121"/>
-      <c r="B31" s="124"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="78" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="91"/>
       <c r="E31" s="22"/>
       <c r="F31" s="92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G31" s="91"/>
       <c r="H31" s="92" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="92" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K31" s="108" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L31" s="92" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M31" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N31" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O31" s="26"/>
-      <c r="P31" s="166" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q31" s="167"/>
+      <c r="P31" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q31" s="125"/>
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
@@ -4685,7 +4829,7 @@
     </row>
     <row r="32" spans="1:31" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="122"/>
-      <c r="B32" s="125"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="79" t="s">
         <v>15</v>
       </c>
@@ -4720,7 +4864,7 @@
     </row>
     <row r="33" spans="1:50" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="122"/>
-      <c r="B33" s="125"/>
+      <c r="B33" s="129"/>
       <c r="C33" s="79" t="s">
         <v>45</v>
       </c>
@@ -4786,37 +4930,37 @@
     </row>
     <row r="35" spans="1:50" s="7" customFormat="1" ht="325.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="120" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="123" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="85" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="108" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E35" s="92" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F35" s="92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G35" s="92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H35" s="91"/>
       <c r="I35" s="29"/>
       <c r="J35" s="91"/>
       <c r="K35" s="92" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L35" s="92" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="M35" s="108" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N35" s="19"/>
       <c r="O35" s="28"/>
@@ -4833,41 +4977,41 @@
     </row>
     <row r="36" spans="1:50" s="7" customFormat="1" ht="302.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="121"/>
-      <c r="B36" s="126"/>
+      <c r="B36" s="123"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="92" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E36" s="108" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F36" s="92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G36" s="92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I36" s="31"/>
       <c r="J36" s="88" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K36" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L36" s="92" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="M36" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N36" s="19"/>
       <c r="O36" s="27"/>
-      <c r="P36" s="166" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q36" s="167"/>
+      <c r="P36" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q36" s="125"/>
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
@@ -4885,34 +5029,34 @@
     </row>
     <row r="37" spans="1:50" s="7" customFormat="1" ht="364.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="121"/>
-      <c r="B37" s="126"/>
+      <c r="B37" s="123"/>
       <c r="C37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="92" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E37" s="91"/>
       <c r="F37" s="91"/>
       <c r="G37" s="91"/>
       <c r="H37" s="92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I37" s="36"/>
       <c r="J37" s="92" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K37" s="19"/>
       <c r="L37" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M37" s="91"/>
       <c r="N37" s="42"/>
       <c r="O37" s="35"/>
-      <c r="P37" s="166" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q37" s="167"/>
+      <c r="P37" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q37" s="125"/>
       <c r="R37" s="17"/>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
@@ -4930,7 +5074,7 @@
     </row>
     <row r="38" spans="1:50" s="7" customFormat="1" ht="278.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="121"/>
-      <c r="B38" s="126"/>
+      <c r="B38" s="123"/>
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
@@ -4939,20 +5083,20 @@
       <c r="F38" s="91"/>
       <c r="G38" s="19"/>
       <c r="H38" s="92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I38" s="36"/>
       <c r="K38" s="19"/>
       <c r="L38" s="109" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M38" s="42"/>
       <c r="N38" s="42"/>
       <c r="O38" s="24"/>
-      <c r="P38" s="148" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q38" s="148"/>
+      <c r="P38" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q38" s="126"/>
       <c r="R38" s="17"/>
       <c r="S38" s="17"/>
       <c r="T38" s="17"/>
@@ -4970,7 +5114,7 @@
     </row>
     <row r="39" spans="1:50" s="7" customFormat="1" ht="305.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="122"/>
-      <c r="B39" s="126"/>
+      <c r="B39" s="123"/>
       <c r="C39" s="84" t="s">
         <v>15</v>
       </c>
@@ -4978,7 +5122,7 @@
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I39" s="36"/>
       <c r="J39" s="19"/>
@@ -5037,9 +5181,9 @@
     </row>
     <row r="41" spans="1:50" s="21" customFormat="1" ht="313.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A41" s="120" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="123" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="127" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="85" t="s">
@@ -5049,10 +5193,10 @@
       <c r="E41" s="91"/>
       <c r="F41" s="19"/>
       <c r="G41" s="92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H41" s="108" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="42"/>
@@ -5083,36 +5227,36 @@
     </row>
     <row r="42" spans="1:50" s="7" customFormat="1" ht="385.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="121"/>
-      <c r="B42" s="124"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="91"/>
       <c r="E42" s="91"/>
       <c r="F42" s="92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G42" s="98" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H42" s="92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="91"/>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
       <c r="M42" s="88" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N42" s="88" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O42" s="30"/>
-      <c r="P42" s="166" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q42" s="167"/>
+      <c r="P42" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q42" s="125"/>
       <c r="R42" s="17"/>
       <c r="W42" s="17"/>
       <c r="X42" s="17"/>
@@ -5126,36 +5270,36 @@
     </row>
     <row r="43" spans="1:50" s="7" customFormat="1" ht="342" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="121"/>
-      <c r="B43" s="124"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="92" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F43" s="110" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G43" s="91"/>
       <c r="H43" s="92" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I43" s="24"/>
       <c r="J43" s="98" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L43" s="91"/>
       <c r="M43" s="88" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N43" s="88" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O43" s="24"/>
-      <c r="P43" s="166" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q43" s="167"/>
+      <c r="P43" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q43" s="125"/>
       <c r="R43" s="17"/>
       <c r="T43" s="17"/>
       <c r="U43" s="17"/>
@@ -5172,31 +5316,31 @@
     </row>
     <row r="44" spans="1:50" s="7" customFormat="1" ht="319.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="121"/>
-      <c r="B44" s="124"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="92" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E44" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F44" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G44" s="91"/>
       <c r="H44" s="19"/>
       <c r="I44" s="32"/>
       <c r="J44" s="92" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K44" s="92" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L44" s="91"/>
       <c r="M44" s="88" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N44" s="42"/>
       <c r="O44" s="24"/>
@@ -5219,12 +5363,12 @@
     </row>
     <row r="45" spans="1:50" s="7" customFormat="1" ht="276" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="122"/>
-      <c r="B45" s="125"/>
+      <c r="B45" s="129"/>
       <c r="C45" s="84" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="98" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="19"/>
@@ -5232,7 +5376,7 @@
       <c r="I45" s="81"/>
       <c r="J45" s="87"/>
       <c r="K45" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="86"/>
@@ -5305,7 +5449,7 @@
       <c r="M47" s="68"/>
       <c r="N47" s="68"/>
       <c r="O47" s="118" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P47" s="118"/>
       <c r="Q47" s="118"/>
@@ -5454,6 +5598,47 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="O47:U47"/>
     <mergeCell ref="O48:U48"/>
@@ -5466,47 +5651,6 @@
     <mergeCell ref="B41:B45"/>
     <mergeCell ref="P42:Q42"/>
     <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="D16:H16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="D4:N4"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" r:id="rId1"/>
@@ -5522,7 +5666,7 @@
   <dimension ref="A1:AX52"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="26" zoomScaleNormal="60" zoomScaleSheetLayoutView="26" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41:Q42"/>
+      <selection activeCell="D23" sqref="D23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -5546,100 +5690,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="66" customFormat="1" ht="158.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
     </row>
     <row r="2" spans="1:31" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="141"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="156"/>
     </row>
     <row r="3" spans="1:31" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="93"/>
       <c r="B3" s="94"/>
       <c r="C3" s="95"/>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="144"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
       <c r="I3" s="112"/>
-      <c r="J3" s="145" t="s">
+      <c r="J3" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="135"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="162"/>
       <c r="O3" s="97"/>
-      <c r="P3" s="146" t="s">
+      <c r="P3" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="147"/>
+      <c r="Q3" s="164"/>
     </row>
     <row r="4" spans="1:31" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="138"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="167"/>
       <c r="O4" s="37"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="135"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="162"/>
     </row>
     <row r="5" spans="1:31" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="150" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -5682,9 +5826,9 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="305.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="128"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="132"/>
+      <c r="A6" s="147"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="151"/>
       <c r="D6" s="43" t="s">
         <v>19</v>
       </c>
@@ -5745,9 +5889,9 @@
     </row>
     <row r="8" spans="1:31" s="15" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="120" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="153" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="152" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="76" t="s">
@@ -5765,10 +5909,10 @@
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
       <c r="O8" s="23"/>
-      <c r="P8" s="148" t="s">
+      <c r="P8" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="148"/>
+      <c r="Q8" s="126"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
@@ -5786,7 +5930,7 @@
     </row>
     <row r="9" spans="1:31" s="7" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="121"/>
-      <c r="B9" s="126"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="78" t="s">
         <v>12</v>
       </c>
@@ -5799,10 +5943,10 @@
       <c r="L9" s="114"/>
       <c r="N9" s="114"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="148" t="s">
+      <c r="P9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="148"/>
+      <c r="Q9" s="126"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -5820,7 +5964,7 @@
     </row>
     <row r="10" spans="1:31" s="7" customFormat="1" ht="282" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="121"/>
-      <c r="B10" s="126"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="78" t="s">
         <v>13</v>
       </c>
@@ -5837,7 +5981,7 @@
       <c r="N10" s="42"/>
       <c r="O10" s="33"/>
       <c r="P10" s="88" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="91"/>
       <c r="R10" s="17"/>
@@ -5853,28 +5997,28 @@
     </row>
     <row r="11" spans="1:31" s="7" customFormat="1" ht="270" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="121"/>
-      <c r="B11" s="126"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="149" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="151"/>
+      <c r="D11" s="130" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="132"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
+      <c r="J11" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
       <c r="O11" s="34"/>
       <c r="P11" s="88" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="19"/>
       <c r="R11" s="17"/>
@@ -5890,25 +6034,25 @@
     </row>
     <row r="12" spans="1:31" s="7" customFormat="1" ht="243" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="122"/>
-      <c r="B12" s="126"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="154" t="s">
+      <c r="D12" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="154" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="139"/>
       <c r="O12" s="32"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -5923,25 +6067,25 @@
     </row>
     <row r="13" spans="1:31" s="7" customFormat="1" ht="234" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="122"/>
-      <c r="B13" s="123"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="152" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="149" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="151"/>
+      <c r="J13" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="132"/>
       <c r="O13" s="32"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -5982,10 +6126,10 @@
       <c r="AE14" s="17"/>
     </row>
     <row r="15" spans="1:31" s="7" customFormat="1" ht="270" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="164" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="123" t="s">
+      <c r="A15" s="137" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="127" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="76" t="s">
@@ -6000,14 +6144,14 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="N15" s="19"/>
       <c r="O15" s="30"/>
-      <c r="P15" s="166" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q15" s="167"/>
+      <c r="P15" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15" s="125"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
@@ -6024,8 +6168,8 @@
       <c r="AE15" s="17"/>
     </row>
     <row r="16" spans="1:31" s="15" customFormat="1" ht="250.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="164"/>
-      <c r="B16" s="124"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="78" t="s">
         <v>12</v>
       </c>
@@ -6038,16 +6182,16 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="107" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N16" s="108" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O16" s="30"/>
-      <c r="P16" s="166" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="167"/>
+      <c r="P16" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="125"/>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
@@ -6064,32 +6208,32 @@
       <c r="AE16" s="16"/>
     </row>
     <row r="17" spans="1:31" s="7" customFormat="1" ht="279.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="164"/>
-      <c r="B17" s="124"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="149" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="151"/>
+      <c r="D17" s="130" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="132"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="149" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="150"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="151"/>
+      <c r="J17" s="130" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="132"/>
       <c r="O17" s="24"/>
       <c r="P17" s="107" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="107" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R17" s="17"/>
       <c r="Z17" s="17"/>
@@ -6100,31 +6244,31 @@
       <c r="AE17" s="17"/>
     </row>
     <row r="18" spans="1:31" s="7" customFormat="1" ht="247.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="164"/>
-      <c r="B18" s="124"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="149" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="151"/>
+      <c r="D18" s="130" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="132"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="158" t="s">
-        <v>116</v>
-      </c>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="160"/>
+      <c r="J18" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="145"/>
       <c r="O18" s="24"/>
-      <c r="P18" s="166" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q18" s="167"/>
+      <c r="P18" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q18" s="125"/>
       <c r="R18" s="17"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
@@ -6134,23 +6278,23 @@
       <c r="AE18" s="17"/>
     </row>
     <row r="19" spans="1:31" s="7" customFormat="1" ht="319.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="164"/>
-      <c r="B19" s="125"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="79" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E19" s="92" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F19" s="91"/>
       <c r="G19" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H19" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="42"/>
@@ -6169,8 +6313,8 @@
       <c r="AE19" s="17"/>
     </row>
     <row r="20" spans="1:31" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="164"/>
-      <c r="B20" s="125"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="79" t="s">
         <v>45</v>
       </c>
@@ -6237,39 +6381,39 @@
     </row>
     <row r="22" spans="1:31" s="7" customFormat="1" ht="352.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" s="123" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="127" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="152" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
+      <c r="D22" s="133" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
       <c r="I22" s="24"/>
       <c r="J22" s="19"/>
       <c r="K22" s="92" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="92" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N22" s="92" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O22" s="25"/>
       <c r="P22" s="111" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="88" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
@@ -6288,35 +6432,35 @@
     </row>
     <row r="23" spans="1:31" s="15" customFormat="1" ht="327" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="121"/>
-      <c r="B23" s="124"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="149" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="151"/>
+      <c r="D23" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="132"/>
       <c r="I23" s="36"/>
       <c r="J23" s="22"/>
       <c r="K23" s="88" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L23" s="22"/>
       <c r="M23" s="92" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N23" s="92" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O23" s="26"/>
       <c r="P23" s="111" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="88" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
@@ -6335,37 +6479,37 @@
     </row>
     <row r="24" spans="1:31" s="7" customFormat="1" ht="395.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="121"/>
-      <c r="B24" s="124"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="149" t="s">
-        <v>120</v>
-      </c>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="151"/>
+      <c r="D24" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="132"/>
       <c r="I24" s="36"/>
       <c r="J24" s="108" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K24" s="92" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L24" s="92" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="M24" s="91"/>
       <c r="N24" s="92" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O24" s="24"/>
       <c r="P24" s="88" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q24" s="111" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R24" s="17"/>
       <c r="Z24" s="17"/>
@@ -6377,32 +6521,32 @@
     </row>
     <row r="25" spans="1:31" s="7" customFormat="1" ht="306.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="121"/>
-      <c r="B25" s="124"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="78" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="91"/>
       <c r="E25" s="91"/>
       <c r="F25" s="108" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G25" s="91"/>
       <c r="H25" s="91"/>
       <c r="I25" s="24"/>
       <c r="J25" s="92" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L25" s="92" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M25" s="91"/>
       <c r="N25" s="19"/>
       <c r="O25" s="33"/>
       <c r="P25" s="88" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="111" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R25" s="17"/>
       <c r="Z25" s="17"/>
@@ -6414,7 +6558,7 @@
     </row>
     <row r="26" spans="1:31" s="7" customFormat="1" ht="301.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="122"/>
-      <c r="B26" s="125"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="79" t="s">
         <v>15</v>
       </c>
@@ -6424,14 +6568,14 @@
       <c r="G26" s="87"/>
       <c r="I26" s="24"/>
       <c r="J26" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M26" s="98" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N26" s="19"/>
       <c r="O26" s="32"/>
@@ -6487,37 +6631,37 @@
     </row>
     <row r="28" spans="1:31" s="7" customFormat="1" ht="273.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="120" t="s">
-        <v>122</v>
-      </c>
-      <c r="B28" s="123" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="127" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="76" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="92" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E28" s="92" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F28" s="107" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G28" s="108" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H28" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I28" s="36"/>
-      <c r="J28" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="152"/>
-      <c r="L28" s="152"/>
-      <c r="M28" s="152"/>
-      <c r="N28" s="152"/>
+      <c r="J28" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="133"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="133"/>
       <c r="O28" s="25"/>
       <c r="P28" s="114"/>
       <c r="R28" s="17"/>
@@ -6536,33 +6680,33 @@
     </row>
     <row r="29" spans="1:31" s="7" customFormat="1" ht="306.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="121"/>
-      <c r="B29" s="124"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="78" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="107" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="G29" s="92" t="s">
-        <v>85</v>
-      </c>
       <c r="H29" s="107" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="I29" s="24"/>
-      <c r="J29" s="149" t="s">
-        <v>125</v>
-      </c>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="151"/>
+      <c r="J29" s="130" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="132"/>
       <c r="O29" s="24"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="42"/>
@@ -6583,33 +6727,33 @@
     </row>
     <row r="30" spans="1:31" s="7" customFormat="1" ht="328.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="121"/>
-      <c r="B30" s="124"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E30" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F30" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G30" s="92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H30" s="92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I30" s="36"/>
-      <c r="J30" s="155" t="s">
-        <v>126</v>
-      </c>
-      <c r="K30" s="156"/>
-      <c r="L30" s="156"/>
-      <c r="M30" s="156"/>
-      <c r="N30" s="157"/>
+      <c r="J30" s="140" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="142"/>
       <c r="O30" s="24"/>
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
@@ -6630,36 +6774,36 @@
     </row>
     <row r="31" spans="1:31" s="15" customFormat="1" ht="332.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="121"/>
-      <c r="B31" s="124"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="78" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G31" s="91"/>
       <c r="H31" s="92" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="92" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K31" s="108" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L31" s="92" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M31" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N31" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O31" s="26"/>
       <c r="P31" s="42"/>
@@ -6681,7 +6825,7 @@
     </row>
     <row r="32" spans="1:31" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="122"/>
-      <c r="B32" s="125"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="79" t="s">
         <v>15</v>
       </c>
@@ -6716,7 +6860,7 @@
     </row>
     <row r="33" spans="1:50" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="122"/>
-      <c r="B33" s="125"/>
+      <c r="B33" s="129"/>
       <c r="C33" s="79" t="s">
         <v>45</v>
       </c>
@@ -6782,37 +6926,37 @@
     </row>
     <row r="35" spans="1:50" s="7" customFormat="1" ht="325.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="120" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="123" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="85" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="108" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E35" s="92" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F35" s="92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G35" s="92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H35" s="91"/>
       <c r="I35" s="29"/>
       <c r="J35" s="91"/>
       <c r="K35" s="92" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L35" s="92" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="M35" s="108" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N35" s="19"/>
       <c r="O35" s="28"/>
@@ -6829,41 +6973,41 @@
     </row>
     <row r="36" spans="1:50" s="7" customFormat="1" ht="302.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="121"/>
-      <c r="B36" s="126"/>
+      <c r="B36" s="123"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="92" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E36" s="108" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F36" s="92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G36" s="92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I36" s="31"/>
       <c r="J36" s="88" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K36" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L36" s="92" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="M36" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N36" s="19"/>
       <c r="O36" s="27"/>
-      <c r="P36" s="166" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q36" s="167"/>
+      <c r="P36" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q36" s="125"/>
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
@@ -6881,38 +7025,38 @@
     </row>
     <row r="37" spans="1:50" s="7" customFormat="1" ht="364.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="121"/>
-      <c r="B37" s="126"/>
+      <c r="B37" s="123"/>
       <c r="C37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="92" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E37" s="91"/>
       <c r="F37" s="91"/>
       <c r="G37" s="91"/>
       <c r="H37" s="92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I37" s="36"/>
       <c r="J37" s="92" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K37" s="107" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L37" s="98" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M37" s="19"/>
       <c r="N37" s="107" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O37" s="35"/>
-      <c r="P37" s="166" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q37" s="167"/>
+      <c r="P37" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q37" s="125"/>
       <c r="R37" s="17"/>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
@@ -6930,7 +7074,7 @@
     </row>
     <row r="38" spans="1:50" s="7" customFormat="1" ht="278.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="121"/>
-      <c r="B38" s="126"/>
+      <c r="B38" s="123"/>
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
@@ -6939,24 +7083,24 @@
       <c r="F38" s="91"/>
       <c r="G38" s="19"/>
       <c r="H38" s="92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I38" s="36"/>
       <c r="K38" s="107" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L38" s="108" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M38" s="19"/>
       <c r="N38" s="107" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="O38" s="24"/>
-      <c r="P38" s="148" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q38" s="148"/>
+      <c r="P38" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q38" s="126"/>
       <c r="R38" s="17"/>
       <c r="S38" s="17"/>
       <c r="T38" s="17"/>
@@ -6974,7 +7118,7 @@
     </row>
     <row r="39" spans="1:50" s="7" customFormat="1" ht="305.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="122"/>
-      <c r="B39" s="126"/>
+      <c r="B39" s="123"/>
       <c r="C39" s="84" t="s">
         <v>15</v>
       </c>
@@ -6982,7 +7126,7 @@
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I39" s="36"/>
       <c r="J39" s="19"/>
@@ -6990,7 +7134,7 @@
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
       <c r="N39" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O39" s="32"/>
       <c r="P39" s="42"/>
@@ -7043,9 +7187,9 @@
     </row>
     <row r="41" spans="1:50" s="21" customFormat="1" ht="313.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A41" s="120" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="127" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="85" t="s">
@@ -7053,18 +7197,18 @@
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H41" s="108" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="98" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="91"/>
@@ -7073,7 +7217,7 @@
       <c r="O41" s="106"/>
       <c r="P41" s="115"/>
       <c r="Q41" s="111" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R41" s="17"/>
       <c r="S41" s="7"/>
@@ -7095,39 +7239,39 @@
     </row>
     <row r="42" spans="1:50" s="7" customFormat="1" ht="385.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="121"/>
-      <c r="B42" s="124"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="91"/>
       <c r="E42" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F42" s="92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G42" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H42" s="92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="98" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
       <c r="M42" s="88" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N42" s="88" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O42" s="30"/>
       <c r="P42" s="42"/>
       <c r="Q42" s="111" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R42" s="17"/>
       <c r="W42" s="17"/>
@@ -7142,34 +7286,34 @@
     </row>
     <row r="43" spans="1:50" s="7" customFormat="1" ht="365.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="121"/>
-      <c r="B43" s="124"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="92" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F43" s="92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G43" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H43" s="92" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I43" s="24"/>
       <c r="J43" s="98" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L43" s="107" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M43" s="88" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N43" s="88" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O43" s="24"/>
       <c r="P43" s="42"/>
@@ -7190,35 +7334,35 @@
     </row>
     <row r="44" spans="1:50" s="7" customFormat="1" ht="319.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="121"/>
-      <c r="B44" s="124"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="92" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E44" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F44" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G44" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="32"/>
       <c r="J44" s="92" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K44" s="92" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L44" s="107" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M44" s="88" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N44" s="91"/>
       <c r="O44" s="24"/>
@@ -7241,12 +7385,12 @@
     </row>
     <row r="45" spans="1:50" s="7" customFormat="1" ht="276" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="122"/>
-      <c r="B45" s="125"/>
+      <c r="B45" s="129"/>
       <c r="C45" s="84" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="98" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="19"/>
@@ -7254,7 +7398,7 @@
       <c r="I45" s="81"/>
       <c r="J45" s="87"/>
       <c r="K45" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="86"/>
@@ -7327,7 +7471,7 @@
       <c r="M47" s="68"/>
       <c r="N47" s="68"/>
       <c r="O47" s="118" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P47" s="118"/>
       <c r="Q47" s="118"/>
@@ -7476,6 +7620,44 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="J28:N28"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="J30:N30"/>
     <mergeCell ref="O48:U48"/>
     <mergeCell ref="P36:Q36"/>
     <mergeCell ref="P37:Q37"/>
@@ -7486,44 +7668,6 @@
     <mergeCell ref="O47:U47"/>
     <mergeCell ref="A35:A39"/>
     <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="J28:N28"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="D17:H17"/>
-    <mergeCell ref="J17:N17"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="J12:N12"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="D4:N4"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" r:id="rId1"/>
@@ -7538,8 +7682,8 @@
   </sheetPr>
   <dimension ref="A1:AX52"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="26" zoomScaleNormal="60" zoomScaleSheetLayoutView="26" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView view="pageBreakPreview" zoomScale="26" zoomScaleNormal="60" zoomScaleSheetLayoutView="26" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -7563,100 +7707,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="66" customFormat="1" ht="158.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="133"/>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-      <c r="O1" s="133"/>
-      <c r="P1" s="133"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+      <c r="I1" s="153"/>
+      <c r="J1" s="153"/>
+      <c r="K1" s="153"/>
+      <c r="L1" s="153"/>
+      <c r="M1" s="153"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="153"/>
+      <c r="P1" s="153"/>
     </row>
     <row r="2" spans="1:31" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="141"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="155"/>
+      <c r="J2" s="155"/>
+      <c r="K2" s="155"/>
+      <c r="L2" s="155"/>
+      <c r="M2" s="155"/>
+      <c r="N2" s="155"/>
+      <c r="O2" s="155"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="156"/>
     </row>
     <row r="3" spans="1:31" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="93"/>
       <c r="B3" s="94"/>
       <c r="C3" s="95"/>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="144"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="159"/>
       <c r="I3" s="112"/>
-      <c r="J3" s="145" t="s">
+      <c r="J3" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="135"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="162"/>
       <c r="O3" s="97"/>
-      <c r="P3" s="146" t="s">
+      <c r="P3" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="Q3" s="147"/>
+      <c r="Q3" s="164"/>
     </row>
     <row r="4" spans="1:31" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="165" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
-      <c r="L4" s="137"/>
-      <c r="M4" s="137"/>
-      <c r="N4" s="138"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="166"/>
+      <c r="L4" s="166"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="167"/>
       <c r="O4" s="37"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="135"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="162"/>
     </row>
     <row r="5" spans="1:31" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="127" t="s">
+      <c r="A5" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="131" t="s">
+      <c r="C5" s="150" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -7699,9 +7843,9 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="305.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="128"/>
-      <c r="B6" s="130"/>
-      <c r="C6" s="132"/>
+      <c r="A6" s="147"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="151"/>
       <c r="D6" s="43" t="s">
         <v>19</v>
       </c>
@@ -7762,9 +7906,9 @@
     </row>
     <row r="8" spans="1:31" s="15" customFormat="1" ht="263.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="120" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="153" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" s="152" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="76" t="s">
@@ -7782,10 +7926,10 @@
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
       <c r="O8" s="23"/>
-      <c r="P8" s="148" t="s">
+      <c r="P8" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="148"/>
+      <c r="Q8" s="126"/>
       <c r="R8" s="16"/>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
@@ -7803,7 +7947,7 @@
     </row>
     <row r="9" spans="1:31" s="7" customFormat="1" ht="185.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="121"/>
-      <c r="B9" s="126"/>
+      <c r="B9" s="123"/>
       <c r="C9" s="78" t="s">
         <v>12</v>
       </c>
@@ -7819,10 +7963,10 @@
       <c r="M9" s="19"/>
       <c r="N9" s="19"/>
       <c r="O9" s="24"/>
-      <c r="P9" s="148" t="s">
+      <c r="P9" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="148"/>
+      <c r="Q9" s="126"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
@@ -7840,17 +7984,17 @@
     </row>
     <row r="10" spans="1:31" s="7" customFormat="1" ht="297" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="121"/>
-      <c r="B10" s="126"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="149" t="s">
-        <v>134</v>
-      </c>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="151"/>
+      <c r="D10" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="132"/>
       <c r="I10" s="24"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
@@ -7859,7 +8003,7 @@
       <c r="N10" s="42"/>
       <c r="O10" s="33"/>
       <c r="P10" s="88" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q10" s="91"/>
       <c r="R10" s="17"/>
@@ -7875,28 +8019,28 @@
     </row>
     <row r="11" spans="1:31" s="7" customFormat="1" ht="270" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="121"/>
-      <c r="B11" s="126"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="149" t="s">
-        <v>135</v>
-      </c>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="151"/>
+      <c r="D11" s="130" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="132"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="152"/>
-      <c r="L11" s="152"/>
-      <c r="M11" s="152"/>
-      <c r="N11" s="152"/>
+      <c r="J11" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="133"/>
+      <c r="L11" s="133"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
       <c r="O11" s="34"/>
       <c r="P11" s="88" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="19"/>
       <c r="R11" s="17"/>
@@ -7912,25 +8056,25 @@
     </row>
     <row r="12" spans="1:31" s="7" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="122"/>
-      <c r="B12" s="126"/>
+      <c r="B12" s="123"/>
       <c r="C12" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="154" t="s">
+      <c r="D12" s="139" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="154"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="154" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="154"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="139"/>
       <c r="O12" s="32"/>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
@@ -7945,25 +8089,25 @@
     </row>
     <row r="13" spans="1:31" s="7" customFormat="1" ht="260.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="122"/>
-      <c r="B13" s="123"/>
+      <c r="B13" s="127"/>
       <c r="C13" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="133" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="152" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
       <c r="I13" s="24"/>
-      <c r="J13" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="151"/>
+      <c r="J13" s="130" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="132"/>
       <c r="O13" s="32"/>
       <c r="P13" s="19"/>
       <c r="Q13" s="19"/>
@@ -8004,10 +8148,10 @@
       <c r="AE14" s="17"/>
     </row>
     <row r="15" spans="1:31" s="7" customFormat="1" ht="270" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="164" t="s">
-        <v>137</v>
-      </c>
-      <c r="B15" s="123" t="s">
+      <c r="A15" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="127" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="76" t="s">
@@ -8016,7 +8160,7 @@
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="108" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
@@ -8025,14 +8169,14 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="107" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N15" s="19"/>
       <c r="O15" s="30"/>
-      <c r="P15" s="166" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q15" s="167"/>
+      <c r="P15" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q15" s="125"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
       <c r="T15" s="17"/>
@@ -8049,33 +8193,33 @@
       <c r="AE15" s="17"/>
     </row>
     <row r="16" spans="1:31" s="15" customFormat="1" ht="300" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="164"/>
-      <c r="B16" s="124"/>
+      <c r="A16" s="137"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="165" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="165"/>
-      <c r="F16" s="165"/>
-      <c r="G16" s="165"/>
-      <c r="H16" s="165"/>
+      <c r="D16" s="138" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="138"/>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="138"/>
       <c r="I16" s="26"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="107" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N16" s="108" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O16" s="30"/>
-      <c r="P16" s="166" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="167"/>
+      <c r="P16" s="124" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="125"/>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
@@ -8092,32 +8236,32 @@
       <c r="AE16" s="16"/>
     </row>
     <row r="17" spans="1:31" s="7" customFormat="1" ht="279.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="164"/>
-      <c r="B17" s="124"/>
+      <c r="A17" s="137"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="149" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="151"/>
+      <c r="D17" s="130" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="132"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="149" t="s">
-        <v>61</v>
-      </c>
-      <c r="K17" s="150"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="151"/>
+      <c r="J17" s="130" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="131"/>
+      <c r="L17" s="131"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="132"/>
       <c r="O17" s="24"/>
       <c r="P17" s="107" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q17" s="107" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R17" s="17"/>
       <c r="Z17" s="17"/>
@@ -8128,31 +8272,31 @@
       <c r="AE17" s="17"/>
     </row>
     <row r="18" spans="1:31" s="7" customFormat="1" ht="319.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="164"/>
-      <c r="B18" s="124"/>
+      <c r="A18" s="137"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="149" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="151"/>
+      <c r="D18" s="130" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="132"/>
       <c r="I18" s="24"/>
-      <c r="J18" s="158" t="s">
-        <v>140</v>
-      </c>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="160"/>
+      <c r="J18" s="143" t="s">
+        <v>135</v>
+      </c>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="145"/>
       <c r="O18" s="24"/>
-      <c r="P18" s="166" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q18" s="167"/>
+      <c r="P18" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q18" s="125"/>
       <c r="R18" s="17"/>
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
@@ -8162,32 +8306,32 @@
       <c r="AE18" s="17"/>
     </row>
     <row r="19" spans="1:31" s="7" customFormat="1" ht="319.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="164"/>
-      <c r="B19" s="125"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="129"/>
       <c r="C19" s="79" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E19" s="92" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F19" s="91"/>
       <c r="G19" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H19" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I19" s="24"/>
-      <c r="J19" s="168" t="s">
-        <v>141</v>
-      </c>
-      <c r="K19" s="169"/>
-      <c r="L19" s="169"/>
-      <c r="M19" s="169"/>
-      <c r="N19" s="170"/>
+      <c r="J19" s="170" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="171"/>
+      <c r="L19" s="171"/>
+      <c r="M19" s="171"/>
+      <c r="N19" s="172"/>
       <c r="O19" s="24"/>
       <c r="P19" s="19"/>
       <c r="R19" s="17"/>
@@ -8199,8 +8343,8 @@
       <c r="AE19" s="17"/>
     </row>
     <row r="20" spans="1:31" s="7" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="164"/>
-      <c r="B20" s="125"/>
+      <c r="A20" s="137"/>
+      <c r="B20" s="129"/>
       <c r="C20" s="79" t="s">
         <v>45</v>
       </c>
@@ -8267,39 +8411,39 @@
     </row>
     <row r="22" spans="1:31" s="7" customFormat="1" ht="390" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="120" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="123" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="127" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="152" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
+      <c r="D22" s="133" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
       <c r="I22" s="24"/>
       <c r="J22" s="19"/>
       <c r="K22" s="92" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L22" s="19"/>
       <c r="M22" s="92" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N22" s="92" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O22" s="25"/>
       <c r="P22" s="111" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Q22" s="88" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
@@ -8318,35 +8462,35 @@
     </row>
     <row r="23" spans="1:31" s="15" customFormat="1" ht="375.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="121"/>
-      <c r="B23" s="124"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="149" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="151"/>
+      <c r="D23" s="130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="132"/>
       <c r="I23" s="36"/>
       <c r="J23" s="22"/>
       <c r="K23" s="88" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L23" s="22"/>
       <c r="M23" s="92" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N23" s="92" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O23" s="26"/>
       <c r="P23" s="111" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="Q23" s="88" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
@@ -8365,7 +8509,7 @@
     </row>
     <row r="24" spans="1:31" s="7" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="121"/>
-      <c r="B24" s="124"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="78" t="s">
         <v>13</v>
       </c>
@@ -8376,24 +8520,24 @@
       <c r="H24" s="42"/>
       <c r="I24" s="36"/>
       <c r="J24" s="108" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K24" s="92" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L24" s="92" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="M24" s="91"/>
       <c r="N24" s="92" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O24" s="24"/>
       <c r="P24" s="88" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q24" s="111" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R24" s="17"/>
       <c r="Z24" s="17"/>
@@ -8405,7 +8549,7 @@
     </row>
     <row r="25" spans="1:31" s="7" customFormat="1" ht="303.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="121"/>
-      <c r="B25" s="124"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="78" t="s">
         <v>14</v>
       </c>
@@ -8416,22 +8560,22 @@
       <c r="H25" s="42"/>
       <c r="I25" s="24"/>
       <c r="J25" s="92" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K25" s="92" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L25" s="92" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M25" s="91"/>
       <c r="N25" s="19"/>
       <c r="O25" s="33"/>
       <c r="P25" s="88" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="111" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R25" s="17"/>
       <c r="Z25" s="17"/>
@@ -8443,7 +8587,7 @@
     </row>
     <row r="26" spans="1:31" s="7" customFormat="1" ht="301.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="122"/>
-      <c r="B26" s="125"/>
+      <c r="B26" s="129"/>
       <c r="C26" s="79" t="s">
         <v>15</v>
       </c>
@@ -8453,14 +8597,14 @@
       <c r="G26" s="87"/>
       <c r="I26" s="24"/>
       <c r="J26" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M26" s="98" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N26" s="19"/>
       <c r="O26" s="32"/>
@@ -8516,28 +8660,28 @@
     </row>
     <row r="28" spans="1:31" s="7" customFormat="1" ht="273.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="120" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="123" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="127" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="76" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="92" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E28" s="92" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F28" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G28" s="108" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H28" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I28" s="36"/>
       <c r="J28" s="19"/>
@@ -8563,33 +8707,33 @@
     </row>
     <row r="29" spans="1:31" s="7" customFormat="1" ht="306.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="121"/>
-      <c r="B29" s="124"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="78" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="107" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="92" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="107" t="s">
-        <v>124</v>
-      </c>
-      <c r="G29" s="92" t="s">
-        <v>85</v>
-      </c>
       <c r="H29" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I29" s="24"/>
-      <c r="J29" s="149" t="s">
-        <v>144</v>
-      </c>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
-      <c r="N29" s="151"/>
+      <c r="J29" s="130" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
+      <c r="N29" s="132"/>
       <c r="O29" s="24"/>
       <c r="P29" s="42"/>
       <c r="Q29" s="42"/>
@@ -8610,33 +8754,33 @@
     </row>
     <row r="30" spans="1:31" s="7" customFormat="1" ht="357" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="121"/>
-      <c r="B30" s="124"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="78" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="107" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E30" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F30" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G30" s="92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H30" s="92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I30" s="36"/>
-      <c r="J30" s="152" t="s">
-        <v>51</v>
-      </c>
-      <c r="K30" s="152"/>
-      <c r="L30" s="152"/>
-      <c r="M30" s="152"/>
-      <c r="N30" s="152"/>
+      <c r="J30" s="133" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30" s="133"/>
+      <c r="L30" s="133"/>
+      <c r="M30" s="133"/>
+      <c r="N30" s="133"/>
       <c r="O30" s="24"/>
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
@@ -8657,36 +8801,36 @@
     </row>
     <row r="31" spans="1:31" s="15" customFormat="1" ht="332.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="121"/>
-      <c r="B31" s="124"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="78" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="107" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G31" s="91"/>
       <c r="H31" s="92" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="92" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K31" s="108" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="L31" s="92" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M31" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N31" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O31" s="26"/>
       <c r="P31" s="42"/>
@@ -8708,7 +8852,7 @@
     </row>
     <row r="32" spans="1:31" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="122"/>
-      <c r="B32" s="125"/>
+      <c r="B32" s="129"/>
       <c r="C32" s="79" t="s">
         <v>15</v>
       </c>
@@ -8743,7 +8887,7 @@
     </row>
     <row r="33" spans="1:50" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="122"/>
-      <c r="B33" s="125"/>
+      <c r="B33" s="129"/>
       <c r="C33" s="79" t="s">
         <v>45</v>
       </c>
@@ -8809,35 +8953,35 @@
     </row>
     <row r="35" spans="1:50" s="7" customFormat="1" ht="325.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="126" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="123" t="s">
         <v>9</v>
       </c>
       <c r="C35" s="85" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="108" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E35" s="92" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F35" s="92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G35" s="92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H35" s="91"/>
       <c r="I35" s="29"/>
       <c r="J35" s="19"/>
       <c r="K35" s="19"/>
       <c r="L35" s="92" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="M35" s="108" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N35" s="19"/>
       <c r="O35" s="28"/>
@@ -8854,39 +8998,39 @@
     </row>
     <row r="36" spans="1:50" s="7" customFormat="1" ht="302.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="121"/>
-      <c r="B36" s="126"/>
+      <c r="B36" s="123"/>
       <c r="C36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D36" s="92" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E36" s="108" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F36" s="92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G36" s="92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I36" s="31"/>
       <c r="J36" s="19"/>
       <c r="K36" s="98" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="L36" s="92" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="M36" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N36" s="19"/>
       <c r="O36" s="27"/>
-      <c r="P36" s="166" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q36" s="167"/>
+      <c r="P36" s="124" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q36" s="125"/>
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
       <c r="T36" s="17"/>
@@ -8904,38 +9048,38 @@
     </row>
     <row r="37" spans="1:50" s="7" customFormat="1" ht="364.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="121"/>
-      <c r="B37" s="126"/>
+      <c r="B37" s="123"/>
       <c r="C37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="92" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E37" s="91"/>
       <c r="F37" s="91"/>
       <c r="G37" s="91"/>
       <c r="H37" s="92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I37" s="36"/>
       <c r="J37" s="92" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K37" s="107" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L37" s="98" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M37" s="19"/>
       <c r="N37" s="107" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O37" s="35"/>
-      <c r="P37" s="166" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q37" s="167"/>
+      <c r="P37" s="124" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q37" s="125"/>
       <c r="R37" s="17"/>
       <c r="S37" s="17"/>
       <c r="T37" s="17"/>
@@ -8953,7 +9097,7 @@
     </row>
     <row r="38" spans="1:50" s="7" customFormat="1" ht="278.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="121"/>
-      <c r="B38" s="126"/>
+      <c r="B38" s="123"/>
       <c r="C38" s="1" t="s">
         <v>14</v>
       </c>
@@ -8962,27 +9106,27 @@
       <c r="F38" s="91"/>
       <c r="G38" s="19"/>
       <c r="H38" s="92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I38" s="36"/>
       <c r="J38" s="88" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K38" s="107" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="L38" s="108" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M38" s="19"/>
       <c r="N38" s="107" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="O38" s="24"/>
-      <c r="P38" s="148" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q38" s="148"/>
+      <c r="P38" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q38" s="126"/>
       <c r="R38" s="17"/>
       <c r="S38" s="17"/>
       <c r="T38" s="17"/>
@@ -9000,7 +9144,7 @@
     </row>
     <row r="39" spans="1:50" s="7" customFormat="1" ht="305.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="122"/>
-      <c r="B39" s="126"/>
+      <c r="B39" s="123"/>
       <c r="C39" s="84" t="s">
         <v>15</v>
       </c>
@@ -9008,7 +9152,7 @@
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="107" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I39" s="36"/>
       <c r="J39" s="19"/>
@@ -9016,13 +9160,13 @@
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
       <c r="N39" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="O39" s="32"/>
-      <c r="P39" s="166" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q39" s="167"/>
+      <c r="P39" s="124" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q39" s="125"/>
       <c r="R39" s="17"/>
       <c r="T39" s="17"/>
       <c r="U39" s="17"/>
@@ -9071,9 +9215,9 @@
     </row>
     <row r="41" spans="1:50" s="21" customFormat="1" ht="313.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A41" s="120" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" s="127" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="85" t="s">
@@ -9081,18 +9225,18 @@
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F41" s="19"/>
       <c r="G41" s="92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H41" s="108" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I41" s="24"/>
       <c r="J41" s="98" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K41" s="19"/>
       <c r="L41" s="91"/>
@@ -9101,7 +9245,7 @@
       <c r="O41" s="106"/>
       <c r="P41" s="91"/>
       <c r="Q41" s="111" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="R41" s="17"/>
       <c r="S41" s="7"/>
@@ -9123,39 +9267,39 @@
     </row>
     <row r="42" spans="1:50" s="7" customFormat="1" ht="385.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="121"/>
-      <c r="B42" s="124"/>
+      <c r="B42" s="128"/>
       <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="91"/>
       <c r="E42" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F42" s="92" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G42" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H42" s="92" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I42" s="24"/>
       <c r="J42" s="98" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K42" s="19"/>
       <c r="L42" s="19"/>
       <c r="M42" s="88" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N42" s="88" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O42" s="30"/>
       <c r="P42" s="116"/>
       <c r="Q42" s="111" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="R42" s="17"/>
       <c r="W42" s="17"/>
@@ -9170,40 +9314,40 @@
     </row>
     <row r="43" spans="1:50" s="7" customFormat="1" ht="365.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="121"/>
-      <c r="B43" s="124"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="92" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F43" s="92" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G43" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H43" s="92" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I43" s="24"/>
       <c r="J43" s="98" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L43" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M43" s="88" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N43" s="88" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O43" s="24"/>
-      <c r="P43" s="171" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q43" s="172"/>
+      <c r="P43" s="168" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q43" s="169"/>
       <c r="R43" s="17"/>
       <c r="T43" s="17"/>
       <c r="U43" s="17"/>
@@ -9220,42 +9364,42 @@
     </row>
     <row r="44" spans="1:50" s="7" customFormat="1" ht="319.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="121"/>
-      <c r="B44" s="124"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="92" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E44" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F44" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G44" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="32"/>
       <c r="J44" s="92" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K44" s="92" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L44" s="107" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M44" s="88" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N44" s="91"/>
       <c r="O44" s="24"/>
-      <c r="P44" s="171" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q44" s="172"/>
+      <c r="P44" s="168" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q44" s="169"/>
       <c r="R44" s="17"/>
       <c r="S44" s="17"/>
       <c r="T44" s="17"/>
@@ -9273,12 +9417,12 @@
     </row>
     <row r="45" spans="1:50" s="7" customFormat="1" ht="276" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="122"/>
-      <c r="B45" s="125"/>
+      <c r="B45" s="129"/>
       <c r="C45" s="84" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="98" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="19"/>
@@ -9286,7 +9430,7 @@
       <c r="I45" s="81"/>
       <c r="J45" s="87"/>
       <c r="K45" s="107" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L45" s="20"/>
       <c r="M45" s="86"/>
@@ -9359,7 +9503,7 @@
       <c r="M47" s="68"/>
       <c r="N47" s="68"/>
       <c r="O47" s="118" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="P47" s="118"/>
       <c r="Q47" s="118"/>
@@ -9508,27 +9652,27 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="O48:U48"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="O47:U47"/>
-    <mergeCell ref="J29:N29"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="J18:N18"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="J12:N12"/>
@@ -9539,27 +9683,27 @@
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="D17:H17"/>
     <mergeCell ref="J17:N17"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="J19:N19"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A8:A14"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="J18:N18"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="D4:N4"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="J29:N29"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="O48:U48"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="B41:B45"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="O47:U47"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" r:id="rId1"/>
